--- a/biology/Histoire de la zoologie et de la botanique/Maurice_Régimbart/Maurice_Régimbart.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Maurice_Régimbart/Maurice_Régimbart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maurice_R%C3%A9gimbart</t>
+          <t>Maurice_Régimbart</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Régimbart, né le 9 août 1852 à Évreux[1] et mort le 22 septembre 1907 dans la même ville, est un entomologiste français spécialiste des coléoptères, notamment aquatiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Régimbart, né le 9 août 1852 à Évreux et mort le 22 septembre 1907 dans la même ville, est un entomologiste français spécialiste des coléoptères, notamment aquatiques.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maurice_R%C3%A9gimbart</t>
+          <t>Maurice_Régimbart</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Régimbart se passionna pour l'étude des coléoptères et particulièrement ceux des familles des Dytiscidae, des Gyrinidae et des Hydrophilidae. Il décrivit nombre d'espèces rapportées d'expéditions coloniales en provenance des colonies belges, françaises, ou autres. Il était membre de la Société entomologique de France.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maurice_R%C3%A9gimbart</t>
+          <t>Maurice_Régimbart</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1877. Recherches sur les organes copulateurs et sur les fonctions génitales dans le genre Dytiscus. Ann. Soc. Entomol. France 46: 263-274 + pl. 6.
 1878. Étude sur la classification des Dytiscides. Ann. Soc. Entomol. France 8: 447-466.
